--- a/lindqvist_list/workdir/results2.xlsx
+++ b/lindqvist_list/workdir/results2.xlsx
@@ -32,37 +32,37 @@
     <t>grf</t>
   </si>
   <si>
+    <t>csfR</t>
+  </si>
+  <si>
     <t>hsfR</t>
   </si>
   <si>
-    <t>csfR</t>
-  </si>
-  <si>
     <t>hsf</t>
   </si>
   <si>
+    <t>sausR</t>
+  </si>
+  <si>
+    <t>pate</t>
+  </si>
+  <si>
     <t>csf</t>
   </si>
   <si>
-    <t>pate</t>
-  </si>
-  <si>
     <t>pateR</t>
   </si>
   <si>
+    <t>comeR</t>
+  </si>
+  <si>
+    <t>saus</t>
+  </si>
+  <si>
+    <t>grfR</t>
+  </si>
+  <si>
     <t>come</t>
-  </si>
-  <si>
-    <t>grfR</t>
-  </si>
-  <si>
-    <t>comeR</t>
-  </si>
-  <si>
-    <t>sausR</t>
-  </si>
-  <si>
-    <t>saus</t>
   </si>
   <si>
     <t>sssch</t>
@@ -145,19 +145,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1.335709558390828E-7</v>
+        <v>7.822791189063886E-11</v>
       </c>
       <c r="C2" t="n">
-        <v>4.142494231210431E-7</v>
+        <v>1.2579801516960134E-9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.034730911758839E-6</v>
+        <v>6.066849507418029E-7</v>
       </c>
       <c r="E2" t="n">
-        <v>4.752248058558284E-7</v>
+        <v>6.677345348860525E-8</v>
       </c>
       <c r="F2" t="n">
-        <v>2.7764056930225337E-7</v>
+        <v>2.521833346688383E-7</v>
       </c>
     </row>
     <row r="3">
@@ -165,19 +165,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1854132789040503E-8</v>
+        <v>1.087697986000552E-10</v>
       </c>
       <c r="C3" t="n">
-        <v>4.395276562484062E-8</v>
+        <v>1.2022667209020277E-9</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9447423975156282E-7</v>
+        <v>1.3684944339678168E-7</v>
       </c>
       <c r="E3" t="n">
-        <v>6.452730280099516E-8</v>
+        <v>4.829837900616147E-8</v>
       </c>
       <c r="F3" t="n">
-        <v>5.410641775988157E-8</v>
+        <v>3.8801403944033604E-7</v>
       </c>
     </row>
     <row r="4">
@@ -185,19 +185,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1.2330124552524106E-8</v>
+        <v>4.869270358809467E-11</v>
       </c>
       <c r="C4" t="n">
-        <v>2.710256196150707E-8</v>
+        <v>1.7453603865031036E-9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0391230262692378E-7</v>
+        <v>2.9818271257861565E-7</v>
       </c>
       <c r="E4" t="n">
-        <v>6.09624265219463E-8</v>
+        <v>2.918185120488893E-8</v>
       </c>
       <c r="F4" t="n">
-        <v>1.239821459752756E-7</v>
+        <v>1.0337777084736685E-7</v>
       </c>
     </row>
     <row r="5">
@@ -205,19 +205,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1.892271795218372E-8</v>
+        <v>7.212191236563373E-11</v>
       </c>
       <c r="C5" t="n">
-        <v>4.149491085674331E-8</v>
+        <v>1.9363092389581787E-9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.06478408891585E-7</v>
+        <v>1.3994539162980146E-7</v>
       </c>
       <c r="E5" t="n">
-        <v>5.933436764778673E-8</v>
+        <v>1.825448400982092E-8</v>
       </c>
       <c r="F5" t="n">
-        <v>4.801622869256834E-8</v>
+        <v>6.346955105187527E-8</v>
       </c>
     </row>
     <row r="6">
@@ -225,19 +225,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>8.433991126593599E-9</v>
+        <v>7.485582277053416E-12</v>
       </c>
       <c r="C6" t="n">
-        <v>1.8514326413263273E-8</v>
+        <v>1.5621238250475819E-10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.610358272044774E-7</v>
+        <v>4.114810307109506E-9</v>
       </c>
       <c r="E6" t="n">
-        <v>3.795792380220018E-8</v>
+        <v>1.7247338478957388E-8</v>
       </c>
       <c r="F6" t="n">
-        <v>7.17803025769875E-8</v>
+        <v>1.6705994292952222E-7</v>
       </c>
     </row>
     <row r="7">
@@ -245,19 +245,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>9.006469603431925E-9</v>
+        <v>4.051438607120793E-11</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0303490322859344E-8</v>
+        <v>5.103785124774126E-10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3377168182504108E-7</v>
+        <v>3.8082198212300636E-8</v>
       </c>
       <c r="E7" t="n">
-        <v>3.384960792117423E-8</v>
+        <v>1.1346992673929118E-8</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5145174751500417E-8</v>
+        <v>6.219058817624701E-8</v>
       </c>
     </row>
     <row r="8">
@@ -265,19 +265,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>7.1340444477312145E-9</v>
+        <v>6.001738825568027E-11</v>
       </c>
       <c r="C8" t="n">
-        <v>1.4998852060185582E-8</v>
+        <v>6.021382361095963E-10</v>
       </c>
       <c r="D8" t="n">
-        <v>5.439373319864599E-8</v>
+        <v>4.04805804054159E-8</v>
       </c>
       <c r="E8" t="n">
-        <v>2.3098323957751403E-8</v>
+        <v>5.313081509868661E-9</v>
       </c>
       <c r="F8" t="n">
-        <v>2.7822884691202876E-8</v>
+        <v>1.5775083705107178E-8</v>
       </c>
     </row>
     <row r="9">
@@ -285,19 +285,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>2.6054095914156928E-9</v>
+        <v>3.763424683874696E-11</v>
       </c>
       <c r="C9" t="n">
-        <v>6.558597001354797E-9</v>
+        <v>4.106992329459587E-10</v>
       </c>
       <c r="D9" t="n">
-        <v>9.090307280768263E-8</v>
+        <v>2.1612895962988865E-8</v>
       </c>
       <c r="E9" t="n">
-        <v>1.4311797360188318E-8</v>
+        <v>3.971462822945167E-9</v>
       </c>
       <c r="F9" t="n">
-        <v>2.115958253083866E-8</v>
+        <v>2.213416866525316E-8</v>
       </c>
     </row>
     <row r="10">
@@ -305,19 +305,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>3.549464517964874E-9</v>
+        <v>8.086527563345152E-12</v>
       </c>
       <c r="C10" t="n">
-        <v>7.780487641260676E-9</v>
+        <v>1.3925373842179158E-10</v>
       </c>
       <c r="D10" t="n">
-        <v>4.679392558736275E-8</v>
+        <v>1.6025860012901654E-8</v>
       </c>
       <c r="E10" t="n">
-        <v>1.3571772949059235E-8</v>
+        <v>1.8106096265244934E-9</v>
       </c>
       <c r="F10" t="n">
-        <v>1.816852109491008E-8</v>
+        <v>7.849813639283134E-9</v>
       </c>
     </row>
     <row r="11">
@@ -325,19 +325,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>2.6826397596324745E-9</v>
+        <v>6.6789359199623524E-12</v>
       </c>
       <c r="C11" t="n">
-        <v>6.643218756587112E-9</v>
+        <v>1.579923296876375E-10</v>
       </c>
       <c r="D11" t="n">
-        <v>3.657537496710045E-8</v>
+        <v>1.9630445554529575E-8</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0240715879439074E-8</v>
+        <v>1.5789036678363375E-9</v>
       </c>
       <c r="F11" t="n">
-        <v>9.78540302788094E-9</v>
+        <v>6.056113954421685E-9</v>
       </c>
     </row>
     <row r="12">
@@ -345,19 +345,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>2.327273883686787E-9</v>
+        <v>3.2983265123119116E-11</v>
       </c>
       <c r="C12" t="n">
-        <v>5.096357275833152E-9</v>
+        <v>3.2561208990221276E-10</v>
       </c>
       <c r="D12" t="n">
-        <v>3.342392171763042E-8</v>
+        <v>1.1537836120940791E-8</v>
       </c>
       <c r="E12" t="n">
-        <v>7.453908179257355E-9</v>
+        <v>1.4229809797458773E-9</v>
       </c>
       <c r="F12" t="n">
-        <v>8.942213396645885E-9</v>
+        <v>3.5640570202136907E-9</v>
       </c>
     </row>
     <row r="13">
@@ -365,19 +365,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>2.414862054209687E-9</v>
+        <v>8.246617442301098E-12</v>
       </c>
       <c r="C13" t="n">
-        <v>4.9183447278768374E-9</v>
+        <v>1.0575099535905898E-10</v>
       </c>
       <c r="D13" t="n">
-        <v>1.869335867263138E-8</v>
+        <v>5.186517333139586E-9</v>
       </c>
       <c r="E13" t="n">
-        <v>6.755623366712731E-9</v>
+        <v>6.580566335433857E-10</v>
       </c>
       <c r="F13" t="n">
-        <v>5.922234826648143E-9</v>
+        <v>1.6736345166634247E-9</v>
       </c>
     </row>
     <row r="14">
@@ -385,19 +385,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>3.326800264709782E-10</v>
+        <v>9.76932582580471E-14</v>
       </c>
       <c r="C14" t="n">
-        <v>7.461274726510552E-10</v>
+        <v>3.620097307550607E-12</v>
       </c>
       <c r="D14" t="n">
-        <v>8.629560932275733E-9</v>
+        <v>2.0335834845968632E-9</v>
       </c>
       <c r="E14" t="n">
-        <v>1.507782990008766E-9</v>
+        <v>2.389277790492498E-10</v>
       </c>
       <c r="F14" t="n">
-        <v>2.087139723488152E-9</v>
+        <v>1.0672644238496303E-9</v>
       </c>
     </row>
     <row r="15">
@@ -405,19 +405,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>1.546457936728813E-10</v>
+        <v>4.833660951686361E-13</v>
       </c>
       <c r="C15" t="n">
-        <v>3.705057898786836E-10</v>
+        <v>7.472008392931173E-12</v>
       </c>
       <c r="D15" t="n">
-        <v>2.54688213475666E-9</v>
+        <v>6.602007711417249E-10</v>
       </c>
       <c r="E15" t="n">
-        <v>9.304380174945117E-10</v>
+        <v>7.282193377047694E-11</v>
       </c>
       <c r="F15" t="n">
-        <v>2.6695379313588517E-9</v>
+        <v>2.504800196134293E-10</v>
       </c>
     </row>
     <row r="16">
@@ -425,19 +425,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>2.4663996334777456E-14</v>
+        <v>2.992559318124118E-17</v>
       </c>
       <c r="C16" t="n">
-        <v>1.1570831171335937E-13</v>
+        <v>7.022634884760892E-16</v>
       </c>
       <c r="D16" t="n">
-        <v>2.363006450985717E-12</v>
+        <v>4.428794653053497E-14</v>
       </c>
       <c r="E16" t="n">
-        <v>3.470869668843203E-13</v>
+        <v>7.863720606935714E-15</v>
       </c>
       <c r="F16" t="n">
-        <v>6.663060935909609E-13</v>
+        <v>3.5991663599363115E-14</v>
       </c>
     </row>
   </sheetData>
